--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H2">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.29291933333333</v>
+        <v>53.419777</v>
       </c>
       <c r="N2">
-        <v>81.878758</v>
+        <v>160.259331</v>
       </c>
       <c r="O2">
-        <v>0.8471655416169351</v>
+        <v>0.9055031838237333</v>
       </c>
       <c r="P2">
-        <v>0.8471655416169349</v>
+        <v>0.9055031838237334</v>
       </c>
       <c r="Q2">
-        <v>1371.401764793967</v>
+        <v>951.8469059170654</v>
       </c>
       <c r="R2">
-        <v>12342.6158831457</v>
+        <v>8566.622153253589</v>
       </c>
       <c r="S2">
-        <v>0.1096744129227444</v>
+        <v>0.04690668788392223</v>
       </c>
       <c r="T2">
-        <v>0.1096744129227444</v>
+        <v>0.04690668788392226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H3">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.994096</v>
       </c>
       <c r="O3">
-        <v>0.05167183951088961</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="P3">
-        <v>0.0516718395108896</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="Q3">
-        <v>83.64699508449421</v>
+        <v>29.66201590753422</v>
       </c>
       <c r="R3">
-        <v>752.8229557604479</v>
+        <v>266.958143167808</v>
       </c>
       <c r="S3">
-        <v>0.00668945841703933</v>
+        <v>0.001461733933822203</v>
       </c>
       <c r="T3">
-        <v>0.006689458417039328</v>
+        <v>0.001461733933822203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H4">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.248480333333333</v>
+        <v>3.864071</v>
       </c>
       <c r="N4">
-        <v>9.745441</v>
+        <v>11.592213</v>
       </c>
       <c r="O4">
-        <v>0.1008320351300503</v>
+        <v>0.0654987495178229</v>
       </c>
       <c r="P4">
-        <v>0.1008320351300502</v>
+        <v>0.06549874951782292</v>
       </c>
       <c r="Q4">
-        <v>163.2281108379231</v>
+        <v>68.85098051970267</v>
       </c>
       <c r="R4">
-        <v>1469.052997541308</v>
+        <v>619.6588246773241</v>
       </c>
       <c r="S4">
-        <v>0.01305375834289332</v>
+        <v>0.003392952620493254</v>
       </c>
       <c r="T4">
-        <v>0.01305375834289332</v>
+        <v>0.003392952620493256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H5">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01065033333333333</v>
+        <v>0.04602999999999999</v>
       </c>
       <c r="N5">
-        <v>0.031951</v>
+        <v>0.13809</v>
       </c>
       <c r="O5">
-        <v>0.0003305837421251882</v>
+        <v>0.0007802412120029336</v>
       </c>
       <c r="P5">
-        <v>0.0003305837421251881</v>
+        <v>0.0007802412120029337</v>
       </c>
       <c r="Q5">
-        <v>0.5351529365764444</v>
+        <v>0.8201740168133332</v>
       </c>
       <c r="R5">
-        <v>4.816376429188</v>
+        <v>7.381566151319999</v>
       </c>
       <c r="S5">
-        <v>4.279751247930029E-05</v>
+        <v>4.041789323263068E-05</v>
       </c>
       <c r="T5">
-        <v>4.279751247930027E-05</v>
+        <v>4.04178932326307E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.29291933333333</v>
+        <v>53.419777</v>
       </c>
       <c r="N6">
-        <v>81.878758</v>
+        <v>160.259331</v>
       </c>
       <c r="O6">
-        <v>0.8471655416169351</v>
+        <v>0.9055031838237333</v>
       </c>
       <c r="P6">
-        <v>0.8471655416169349</v>
+        <v>0.9055031838237334</v>
       </c>
       <c r="Q6">
-        <v>4132.769173910694</v>
+        <v>8088.970071924521</v>
       </c>
       <c r="R6">
-        <v>37194.92256519624</v>
+        <v>72800.73064732068</v>
       </c>
       <c r="S6">
-        <v>0.3305078384246986</v>
+        <v>0.3986216608022582</v>
       </c>
       <c r="T6">
-        <v>0.3305078384246984</v>
+        <v>0.3986216608022584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.994096</v>
       </c>
       <c r="O7">
-        <v>0.05167183951088961</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="P7">
-        <v>0.0516718395108896</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="Q7">
         <v>252.0732666749867</v>
@@ -883,10 +883,10 @@
         <v>2268.65940007488</v>
       </c>
       <c r="S7">
-        <v>0.02015892661495224</v>
+        <v>0.01242208381442647</v>
       </c>
       <c r="T7">
-        <v>0.02015892661495223</v>
+        <v>0.01242208381442648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.248480333333333</v>
+        <v>3.864071</v>
       </c>
       <c r="N8">
-        <v>9.745441</v>
+        <v>11.592213</v>
       </c>
       <c r="O8">
-        <v>0.1008320351300503</v>
+        <v>0.0654987495178229</v>
       </c>
       <c r="P8">
-        <v>0.1008320351300502</v>
+        <v>0.06549874951782292</v>
       </c>
       <c r="Q8">
-        <v>491.8938578790534</v>
+        <v>585.1082956559601</v>
       </c>
       <c r="R8">
-        <v>4427.04472091148</v>
+        <v>5265.97466090364</v>
       </c>
       <c r="S8">
-        <v>0.03933797627225162</v>
+        <v>0.02883393540706549</v>
       </c>
       <c r="T8">
-        <v>0.0393379762722516</v>
+        <v>0.0288339354070655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01065033333333333</v>
+        <v>0.04602999999999999</v>
       </c>
       <c r="N9">
-        <v>0.031951</v>
+        <v>0.13809</v>
       </c>
       <c r="O9">
-        <v>0.0003305837421251882</v>
+        <v>0.0007802412120029336</v>
       </c>
       <c r="P9">
-        <v>0.0003305837421251881</v>
+        <v>0.0007802412120029337</v>
       </c>
       <c r="Q9">
-        <v>1.612702868253333</v>
+        <v>6.9699896428</v>
       </c>
       <c r="R9">
-        <v>14.51432581428</v>
+        <v>62.72990678519999</v>
       </c>
       <c r="S9">
-        <v>0.000128971862830498</v>
+        <v>0.0003434786904244835</v>
       </c>
       <c r="T9">
-        <v>0.000128971862830498</v>
+        <v>0.0003434786904244836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H10">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I10">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J10">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.29291933333333</v>
+        <v>53.419777</v>
       </c>
       <c r="N10">
-        <v>81.878758</v>
+        <v>160.259331</v>
       </c>
       <c r="O10">
-        <v>0.8471655416169351</v>
+        <v>0.9055031838237333</v>
       </c>
       <c r="P10">
-        <v>0.8471655416169349</v>
+        <v>0.9055031838237334</v>
       </c>
       <c r="Q10">
-        <v>2765.117838333997</v>
+        <v>5379.14816019918</v>
       </c>
       <c r="R10">
-        <v>24886.06054500598</v>
+        <v>48412.33344179261</v>
       </c>
       <c r="S10">
-        <v>0.2211333566622981</v>
+        <v>0.2650825697528946</v>
       </c>
       <c r="T10">
-        <v>0.221133356662298</v>
+        <v>0.2650825697528947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H11">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I11">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J11">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.994096</v>
       </c>
       <c r="O11">
-        <v>0.05167183951088961</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="P11">
-        <v>0.0516718395108896</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="Q11">
-        <v>168.6550244930738</v>
+        <v>167.6281945184089</v>
       </c>
       <c r="R11">
-        <v>1517.895220437664</v>
+        <v>1508.65375066568</v>
       </c>
       <c r="S11">
-        <v>0.01348776213696056</v>
+        <v>0.008260659725783156</v>
       </c>
       <c r="T11">
-        <v>0.01348776213696055</v>
+        <v>0.008260659725783159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H12">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I12">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J12">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.248480333333333</v>
+        <v>3.864071</v>
       </c>
       <c r="N12">
-        <v>9.745441</v>
+        <v>11.592213</v>
       </c>
       <c r="O12">
-        <v>0.1008320351300503</v>
+        <v>0.0654987495178229</v>
       </c>
       <c r="P12">
-        <v>0.1008320351300502</v>
+        <v>0.06549874951782292</v>
       </c>
       <c r="Q12">
-        <v>329.112133717655</v>
+        <v>389.0957914431018</v>
       </c>
       <c r="R12">
-        <v>2962.009203458894</v>
+        <v>3501.862122987916</v>
       </c>
       <c r="S12">
-        <v>0.02631991658305788</v>
+        <v>0.01917450666983573</v>
       </c>
       <c r="T12">
-        <v>0.02631991658305787</v>
+        <v>0.01917450666983574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H13">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I13">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J13">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01065033333333333</v>
+        <v>0.04602999999999999</v>
       </c>
       <c r="N13">
-        <v>0.031951</v>
+        <v>0.13809</v>
       </c>
       <c r="O13">
-        <v>0.0003305837421251882</v>
+        <v>0.0007802412120029336</v>
       </c>
       <c r="P13">
-        <v>0.0003305837421251881</v>
+        <v>0.0007802412120029337</v>
       </c>
       <c r="Q13">
-        <v>1.079013436581556</v>
+        <v>4.635028517883334</v>
       </c>
       <c r="R13">
-        <v>9.711120929234001</v>
+        <v>41.71525666095</v>
       </c>
       <c r="S13">
-        <v>8.62913904814859E-05</v>
+        <v>0.0002284126099164686</v>
       </c>
       <c r="T13">
-        <v>8.629139048148585E-05</v>
+        <v>0.0002284126099164686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H14">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.29291933333333</v>
+        <v>53.419777</v>
       </c>
       <c r="N14">
-        <v>81.878758</v>
+        <v>160.259331</v>
       </c>
       <c r="O14">
-        <v>0.8471655416169351</v>
+        <v>0.9055031838237333</v>
       </c>
       <c r="P14">
-        <v>0.8471655416169349</v>
+        <v>0.9055031838237334</v>
       </c>
       <c r="Q14">
-        <v>2323.923330369533</v>
+        <v>3954.821970219286</v>
       </c>
       <c r="R14">
-        <v>20915.30997332579</v>
+        <v>35593.39773197357</v>
       </c>
       <c r="S14">
-        <v>0.1858499336071941</v>
+        <v>0.1948922653846581</v>
       </c>
       <c r="T14">
-        <v>0.185849933607194</v>
+        <v>0.1948922653846582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H15">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.994096</v>
       </c>
       <c r="O15">
-        <v>0.05167183951088961</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="P15">
-        <v>0.0516718395108896</v>
+        <v>0.02821782544644075</v>
       </c>
       <c r="Q15">
-        <v>141.7448980907253</v>
+        <v>123.2424998840426</v>
       </c>
       <c r="R15">
-        <v>1275.704082816528</v>
+        <v>1109.182498956384</v>
       </c>
       <c r="S15">
-        <v>0.0113356923419375</v>
+        <v>0.006073347972408917</v>
       </c>
       <c r="T15">
-        <v>0.01133569234193749</v>
+        <v>0.00607334797240892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H16">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.248480333333333</v>
+        <v>3.864071</v>
       </c>
       <c r="N16">
-        <v>9.745441</v>
+        <v>11.592213</v>
       </c>
       <c r="O16">
-        <v>0.1008320351300503</v>
+        <v>0.0654987495178229</v>
       </c>
       <c r="P16">
-        <v>0.1008320351300502</v>
+        <v>0.06549874951782292</v>
       </c>
       <c r="Q16">
-        <v>276.5999174613736</v>
+        <v>286.068451489178</v>
       </c>
       <c r="R16">
-        <v>2489.399257152363</v>
+        <v>2574.616063402602</v>
       </c>
       <c r="S16">
-        <v>0.02212038393184747</v>
+        <v>0.01409735482042842</v>
       </c>
       <c r="T16">
-        <v>0.02212038393184746</v>
+        <v>0.01409735482042843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H17">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01065033333333333</v>
+        <v>0.04602999999999999</v>
       </c>
       <c r="N17">
-        <v>0.031951</v>
+        <v>0.13809</v>
       </c>
       <c r="O17">
-        <v>0.0003305837421251882</v>
+        <v>0.0007802412120029336</v>
       </c>
       <c r="P17">
-        <v>0.0003305837421251881</v>
+        <v>0.0007802412120029337</v>
       </c>
       <c r="Q17">
-        <v>0.9068490551436666</v>
+        <v>3.407735215539999</v>
       </c>
       <c r="R17">
-        <v>8.161641496293001</v>
+        <v>30.66961693986</v>
       </c>
       <c r="S17">
-        <v>7.252297633390407E-05</v>
+        <v>0.0001679320184293509</v>
       </c>
       <c r="T17">
-        <v>7.252297633390404E-05</v>
+        <v>0.0001679320184293509</v>
       </c>
     </row>
   </sheetData>
